--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H2">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I2">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J2">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.0887068439149</v>
+        <v>24.15150666666667</v>
       </c>
       <c r="N2">
-        <v>24.0887068439149</v>
+        <v>72.45452</v>
       </c>
       <c r="O2">
-        <v>0.05792932504214226</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="P2">
-        <v>0.05792932504214226</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="Q2">
-        <v>3925.69406396862</v>
+        <v>4055.236398112107</v>
       </c>
       <c r="R2">
-        <v>3925.69406396862</v>
+        <v>36497.12758300896</v>
       </c>
       <c r="S2">
-        <v>0.02547545127488688</v>
+        <v>0.02518979833087892</v>
       </c>
       <c r="T2">
-        <v>0.02547545127488688</v>
+        <v>0.02518979833087893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H3">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I3">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J3">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>159.175599089258</v>
+        <v>0.097204</v>
       </c>
       <c r="N3">
-        <v>159.175599089258</v>
+        <v>0.291612</v>
       </c>
       <c r="O3">
-        <v>0.3827907856643069</v>
+        <v>0.0002320268364499376</v>
       </c>
       <c r="P3">
-        <v>0.3827907856643069</v>
+        <v>0.0002320268364499377</v>
       </c>
       <c r="Q3">
-        <v>25940.56661166102</v>
+        <v>16.321350228064</v>
       </c>
       <c r="R3">
-        <v>25940.56661166102</v>
+        <v>146.892152052576</v>
       </c>
       <c r="S3">
-        <v>0.1683390580085738</v>
+        <v>0.0001013828739858364</v>
       </c>
       <c r="T3">
-        <v>0.1683390580085738</v>
+        <v>0.0001013828739858365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H4">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I4">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J4">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>223.464444502756</v>
+        <v>159.5522103333333</v>
       </c>
       <c r="N4">
-        <v>223.464444502756</v>
+        <v>478.656631</v>
       </c>
       <c r="O4">
-        <v>0.5373947437212477</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="P4">
-        <v>0.5373947437212477</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="Q4">
-        <v>36417.60634876585</v>
+        <v>26790.12699592677</v>
       </c>
       <c r="R4">
-        <v>36417.60634876585</v>
+        <v>241111.1429633409</v>
       </c>
       <c r="S4">
-        <v>0.2363288990350144</v>
+        <v>0.1664114813627629</v>
       </c>
       <c r="T4">
-        <v>0.2363288990350144</v>
+        <v>0.1664114813627629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H5">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I5">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J5">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.10048331383285</v>
+        <v>225.4475503333333</v>
       </c>
       <c r="N5">
-        <v>9.10048331383285</v>
+        <v>676.342651</v>
       </c>
       <c r="O5">
-        <v>0.02188514557230325</v>
+        <v>0.5381453632487492</v>
       </c>
       <c r="P5">
-        <v>0.02188514557230325</v>
+        <v>0.5381453632487493</v>
       </c>
       <c r="Q5">
-        <v>1483.089713194125</v>
+        <v>37854.49597804021</v>
       </c>
       <c r="R5">
-        <v>1483.089713194125</v>
+        <v>340690.4638023619</v>
       </c>
       <c r="S5">
-        <v>0.009624382111571721</v>
+        <v>0.2351397122120473</v>
       </c>
       <c r="T5">
-        <v>0.009624382111571721</v>
+        <v>0.2351397122120474</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>203.106970240312</v>
+        <v>167.908216</v>
       </c>
       <c r="H6">
-        <v>203.106970240312</v>
+        <v>503.724648</v>
       </c>
       <c r="I6">
-        <v>0.5480816732646215</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J6">
-        <v>0.5480816732646215</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0887068439149</v>
+        <v>9.685827333333334</v>
       </c>
       <c r="N6">
-        <v>24.0887068439149</v>
+        <v>29.057482</v>
       </c>
       <c r="O6">
-        <v>0.05792932504214226</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="P6">
-        <v>0.05792932504214226</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="Q6">
-        <v>4892.584264074623</v>
+        <v>1626.329988024037</v>
       </c>
       <c r="R6">
-        <v>4892.584264074623</v>
+        <v>14636.96989221634</v>
       </c>
       <c r="S6">
-        <v>0.03175000140018747</v>
+        <v>0.01010222842664812</v>
       </c>
       <c r="T6">
-        <v>0.03175000140018747</v>
+        <v>0.01010222842664812</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H7">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I7">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J7">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>159.175599089258</v>
+        <v>24.15150666666667</v>
       </c>
       <c r="N7">
-        <v>159.175599089258</v>
+        <v>72.45452</v>
       </c>
       <c r="O7">
-        <v>0.3827907856643069</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="P7">
-        <v>0.3827907856643069</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="Q7">
-        <v>32329.67366720576</v>
+        <v>5090.777385611399</v>
       </c>
       <c r="R7">
-        <v>32329.67366720576</v>
+        <v>45816.9964705026</v>
       </c>
       <c r="S7">
-        <v>0.2098006143171724</v>
+        <v>0.0316222392733133</v>
       </c>
       <c r="T7">
-        <v>0.2098006143171724</v>
+        <v>0.03162223927331331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H8">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I8">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J8">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>223.464444502756</v>
+        <v>0.097204</v>
       </c>
       <c r="N8">
-        <v>223.464444502756</v>
+        <v>0.291612</v>
       </c>
       <c r="O8">
-        <v>0.5373947437212477</v>
+        <v>0.0002320268364499376</v>
       </c>
       <c r="P8">
-        <v>0.5373947437212477</v>
+        <v>0.0002320268364499377</v>
       </c>
       <c r="Q8">
-        <v>45387.18627938912</v>
+        <v>20.48915340234</v>
       </c>
       <c r="R8">
-        <v>45387.18627938912</v>
+        <v>184.40238062106</v>
       </c>
       <c r="S8">
-        <v>0.2945362103423539</v>
+        <v>0.0001272719002067702</v>
       </c>
       <c r="T8">
-        <v>0.2945362103423539</v>
+        <v>0.0001272719002067702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H9">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I9">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J9">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.10048331383285</v>
+        <v>159.5522103333333</v>
       </c>
       <c r="N9">
-        <v>9.10048331383285</v>
+        <v>478.656631</v>
       </c>
       <c r="O9">
-        <v>0.02188514557230325</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="P9">
-        <v>0.02188514557230325</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="Q9">
-        <v>1848.371593595105</v>
+        <v>33631.22621704955</v>
       </c>
       <c r="R9">
-        <v>1848.371593595105</v>
+        <v>302681.0359534459</v>
       </c>
       <c r="S9">
-        <v>0.01199484720490779</v>
+        <v>0.2089061457482574</v>
       </c>
       <c r="T9">
-        <v>0.01199484720490779</v>
+        <v>0.2089061457482575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.50272055453184</v>
+        <v>210.785085</v>
       </c>
       <c r="H10">
-        <v>4.50272055453184</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I10">
-        <v>0.0121505363053316</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J10">
-        <v>0.0121505363053316</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.0887068439149</v>
+        <v>225.4475503333333</v>
       </c>
       <c r="N10">
-        <v>24.0887068439149</v>
+        <v>676.342651</v>
       </c>
       <c r="O10">
-        <v>0.05792932504214226</v>
+        <v>0.5381453632487492</v>
       </c>
       <c r="P10">
-        <v>0.05792932504214226</v>
+        <v>0.5381453632487493</v>
       </c>
       <c r="Q10">
-        <v>108.4647154381874</v>
+        <v>47520.98106005344</v>
       </c>
       <c r="R10">
-        <v>108.4647154381874</v>
+        <v>427688.829540481</v>
       </c>
       <c r="S10">
-        <v>0.0007038723670679044</v>
+        <v>0.2951847467993581</v>
       </c>
       <c r="T10">
-        <v>0.0007038723670679044</v>
+        <v>0.2951847467993582</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.50272055453184</v>
+        <v>210.785085</v>
       </c>
       <c r="H11">
-        <v>4.50272055453184</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I11">
-        <v>0.0121505363053316</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J11">
-        <v>0.0121505363053316</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>159.175599089258</v>
+        <v>9.685827333333334</v>
       </c>
       <c r="N11">
-        <v>159.175599089258</v>
+        <v>29.057482</v>
       </c>
       <c r="O11">
-        <v>0.3827907856643069</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="P11">
-        <v>0.3827907856643069</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="Q11">
-        <v>716.7232417991215</v>
+        <v>2041.62793775199</v>
       </c>
       <c r="R11">
-        <v>716.7232417991215</v>
+        <v>18374.65143976791</v>
       </c>
       <c r="S11">
-        <v>0.004651113338560567</v>
+        <v>0.0126819230668286</v>
       </c>
       <c r="T11">
-        <v>0.004651113338560567</v>
+        <v>0.0126819230668286</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>4.50272055453184</v>
+        <v>0.047383</v>
       </c>
       <c r="H12">
-        <v>4.50272055453184</v>
+        <v>0.142149</v>
       </c>
       <c r="I12">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868891</v>
       </c>
       <c r="J12">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868892</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>223.464444502756</v>
+        <v>24.15150666666667</v>
       </c>
       <c r="N12">
-        <v>223.464444502756</v>
+        <v>72.45452</v>
       </c>
       <c r="O12">
-        <v>0.5373947437212477</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="P12">
-        <v>0.5373947437212477</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="Q12">
-        <v>1006.197947469599</v>
+        <v>1.144370840386667</v>
       </c>
       <c r="R12">
-        <v>1006.197947469599</v>
+        <v>10.29933756348</v>
       </c>
       <c r="S12">
-        <v>0.006529634343879391</v>
+        <v>7.108456290858549E-06</v>
       </c>
       <c r="T12">
-        <v>0.006529634343879391</v>
+        <v>7.108456290858551E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.047383</v>
+      </c>
+      <c r="H13">
+        <v>0.142149</v>
+      </c>
+      <c r="I13">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J13">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.097204</v>
+      </c>
+      <c r="N13">
+        <v>0.291612</v>
+      </c>
+      <c r="O13">
+        <v>0.0002320268364499376</v>
+      </c>
+      <c r="P13">
+        <v>0.0002320268364499377</v>
+      </c>
+      <c r="Q13">
+        <v>0.004605817132</v>
+      </c>
+      <c r="R13">
+        <v>0.04145235418799999</v>
+      </c>
+      <c r="S13">
+        <v>2.860982525161775E-08</v>
+      </c>
+      <c r="T13">
+        <v>2.860982525161776E-08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.047383</v>
+      </c>
+      <c r="H14">
+        <v>0.142149</v>
+      </c>
+      <c r="I14">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J14">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>159.5522103333333</v>
+      </c>
+      <c r="N14">
+        <v>478.656631</v>
+      </c>
+      <c r="O14">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="P14">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="Q14">
+        <v>7.560062382224333</v>
+      </c>
+      <c r="R14">
+        <v>68.040561440019</v>
+      </c>
+      <c r="S14">
+        <v>4.696062771229606E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.696062771229608E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.047383</v>
+      </c>
+      <c r="H15">
+        <v>0.142149</v>
+      </c>
+      <c r="I15">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J15">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>225.4475503333333</v>
+      </c>
+      <c r="N15">
+        <v>676.342651</v>
+      </c>
+      <c r="O15">
+        <v>0.5381453632487492</v>
+      </c>
+      <c r="P15">
+        <v>0.5381453632487493</v>
+      </c>
+      <c r="Q15">
+        <v>10.68238127744433</v>
+      </c>
+      <c r="R15">
+        <v>96.141431496999</v>
+      </c>
+      <c r="S15">
+        <v>6.635544852518377E-05</v>
+      </c>
+      <c r="T15">
+        <v>6.63554485251838E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.047383</v>
+      </c>
+      <c r="H16">
+        <v>0.142149</v>
+      </c>
+      <c r="I16">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J16">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.685827333333334</v>
+      </c>
+      <c r="N16">
+        <v>29.057482</v>
+      </c>
+      <c r="O16">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="P16">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="Q16">
+        <v>0.4589435565353334</v>
+      </c>
+      <c r="R16">
+        <v>4.130492008818</v>
+      </c>
+      <c r="S16">
+        <v>2.850806833299138E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.850806833299139E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.384626</v>
+      </c>
+      <c r="I17">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J17">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>24.15150666666667</v>
+      </c>
+      <c r="N17">
+        <v>72.45452</v>
+      </c>
+      <c r="O17">
+        <v>0.05764986715944041</v>
+      </c>
+      <c r="P17">
+        <v>0.05764986715944041</v>
+      </c>
+      <c r="Q17">
+        <v>3.096432467724444</v>
+      </c>
+      <c r="R17">
+        <v>27.86789220952</v>
+      </c>
+      <c r="S17">
+        <v>1.923402281639519E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.92340228163952E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.384626</v>
+      </c>
+      <c r="I18">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J18">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.097204</v>
+      </c>
+      <c r="N18">
+        <v>0.291612</v>
+      </c>
+      <c r="O18">
+        <v>0.0002320268364499376</v>
+      </c>
+      <c r="P18">
+        <v>0.0002320268364499377</v>
+      </c>
+      <c r="Q18">
+        <v>0.01246239523466667</v>
+      </c>
+      <c r="R18">
+        <v>0.112161557112</v>
+      </c>
+      <c r="S18">
+        <v>7.741231135800272E-08</v>
+      </c>
+      <c r="T18">
+        <v>7.741231135800275E-08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.50272055453184</v>
-      </c>
-      <c r="H13">
-        <v>4.50272055453184</v>
-      </c>
-      <c r="I13">
-        <v>0.0121505363053316</v>
-      </c>
-      <c r="J13">
-        <v>0.0121505363053316</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.10048331383285</v>
-      </c>
-      <c r="N13">
-        <v>9.10048331383285</v>
-      </c>
-      <c r="O13">
-        <v>0.02188514557230325</v>
-      </c>
-      <c r="P13">
-        <v>0.02188514557230325</v>
-      </c>
-      <c r="Q13">
-        <v>40.97693327336921</v>
-      </c>
-      <c r="R13">
-        <v>40.97693327336921</v>
-      </c>
-      <c r="S13">
-        <v>0.0002659162558237377</v>
-      </c>
-      <c r="T13">
-        <v>0.0002659162558237377</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.384626</v>
+      </c>
+      <c r="I19">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J19">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>159.5522103333333</v>
+      </c>
+      <c r="N19">
+        <v>478.656631</v>
+      </c>
+      <c r="O19">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="P19">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="Q19">
+        <v>20.45597615055622</v>
+      </c>
+      <c r="R19">
+        <v>184.103785355006</v>
+      </c>
+      <c r="S19">
+        <v>0.0001270658140012915</v>
+      </c>
+      <c r="T19">
+        <v>0.0001270658140012915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.384626</v>
+      </c>
+      <c r="I20">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J20">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>225.4475503333333</v>
+      </c>
+      <c r="N20">
+        <v>676.342651</v>
+      </c>
+      <c r="O20">
+        <v>0.5381453632487492</v>
+      </c>
+      <c r="P20">
+        <v>0.5381453632487493</v>
+      </c>
+      <c r="Q20">
+        <v>28.90432983150289</v>
+      </c>
+      <c r="R20">
+        <v>260.138968483526</v>
+      </c>
+      <c r="S20">
+        <v>0.0001795442158892945</v>
+      </c>
+      <c r="T20">
+        <v>0.0001795442158892947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.384626</v>
+      </c>
+      <c r="I21">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J21">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.685827333333334</v>
+      </c>
+      <c r="N21">
+        <v>29.057482</v>
+      </c>
+      <c r="O21">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="P21">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="Q21">
+        <v>1.241807007970222</v>
+      </c>
+      <c r="R21">
+        <v>11.176263071732</v>
+      </c>
+      <c r="S21">
+        <v>7.713697803463369E-06</v>
+      </c>
+      <c r="T21">
+        <v>7.71369780346337E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H22">
+        <v>16.227444</v>
+      </c>
+      <c r="I22">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J22">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>24.15150666666667</v>
+      </c>
+      <c r="N22">
+        <v>72.45452</v>
+      </c>
+      <c r="O22">
+        <v>0.05764986715944041</v>
+      </c>
+      <c r="P22">
+        <v>0.05764986715944041</v>
+      </c>
+      <c r="Q22">
+        <v>130.6390739829867</v>
+      </c>
+      <c r="R22">
+        <v>1175.75166584688</v>
+      </c>
+      <c r="S22">
+        <v>0.0008114870761409144</v>
+      </c>
+      <c r="T22">
+        <v>0.0008114870761409147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H23">
+        <v>16.227444</v>
+      </c>
+      <c r="I23">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J23">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.097204</v>
+      </c>
+      <c r="N23">
+        <v>0.291612</v>
+      </c>
+      <c r="O23">
+        <v>0.0002320268364499376</v>
+      </c>
+      <c r="P23">
+        <v>0.0002320268364499377</v>
+      </c>
+      <c r="Q23">
+        <v>0.5257908221920001</v>
+      </c>
+      <c r="R23">
+        <v>4.732117399728001</v>
+      </c>
+      <c r="S23">
+        <v>3.266040120721307E-06</v>
+      </c>
+      <c r="T23">
+        <v>3.266040120721308E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H24">
+        <v>16.227444</v>
+      </c>
+      <c r="I24">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J24">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>159.5522103333333</v>
+      </c>
+      <c r="N24">
+        <v>478.656631</v>
+      </c>
+      <c r="O24">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="P24">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="Q24">
+        <v>863.0415194201295</v>
+      </c>
+      <c r="R24">
+        <v>7767.373674781165</v>
+      </c>
+      <c r="S24">
+        <v>0.005360930828962093</v>
+      </c>
+      <c r="T24">
+        <v>0.005360930828962095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H25">
+        <v>16.227444</v>
+      </c>
+      <c r="I25">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J25">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>225.4475503333333</v>
+      </c>
+      <c r="N25">
+        <v>676.342651</v>
+      </c>
+      <c r="O25">
+        <v>0.5381453632487492</v>
+      </c>
+      <c r="P25">
+        <v>0.5381453632487493</v>
+      </c>
+      <c r="Q25">
+        <v>1219.479165990449</v>
+      </c>
+      <c r="R25">
+        <v>10975.31249391405</v>
+      </c>
+      <c r="S25">
+        <v>0.007575004572929127</v>
+      </c>
+      <c r="T25">
+        <v>0.00757500457292913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H26">
+        <v>16.227444</v>
+      </c>
+      <c r="I26">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J26">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.685827333333334</v>
+      </c>
+      <c r="N26">
+        <v>29.057482</v>
+      </c>
+      <c r="O26">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="P26">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="Q26">
+        <v>52.39207354844535</v>
+      </c>
+      <c r="R26">
+        <v>471.5286619360081</v>
+      </c>
+      <c r="S26">
+        <v>0.0003254423755508594</v>
+      </c>
+      <c r="T26">
+        <v>0.0003254423755508595</v>
       </c>
     </row>
   </sheetData>
